--- a/outputs-HGR-r202-archive3/p__Bacteroidota.xlsx
+++ b/outputs-HGR-r202-archive3/p__Bacteroidota.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>613308.31679219</v>
       </c>
-      <c r="C2" t="n">
-        <v>613308.31679219</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,18 +493,18 @@
       <c r="B3" t="n">
         <v>839960.1097089129</v>
       </c>
-      <c r="C3" t="n">
-        <v>839960.1097089129</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +516,18 @@
       <c r="B4" t="n">
         <v>647219.4794021926</v>
       </c>
-      <c r="C4" t="n">
-        <v>647219.4794021926</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +539,18 @@
       <c r="B5" t="n">
         <v>986575.1394990652</v>
       </c>
-      <c r="C5" t="n">
-        <v>986575.1394990652</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,18 +562,18 @@
       <c r="B6" t="n">
         <v>641173.00765799</v>
       </c>
-      <c r="C6" t="n">
-        <v>641173.00765799</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -585,18 +585,18 @@
       <c r="B7" t="n">
         <v>604274.536443948</v>
       </c>
-      <c r="C7" t="n">
-        <v>604274.536443948</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -608,18 +608,18 @@
       <c r="B8" t="n">
         <v>584786.0405073673</v>
       </c>
-      <c r="C8" t="n">
-        <v>584786.0405073673</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -631,18 +631,18 @@
       <c r="B9" t="n">
         <v>402724.1067776793</v>
       </c>
-      <c r="C9" t="n">
-        <v>402724.1067776793</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -654,18 +654,18 @@
       <c r="B10" t="n">
         <v>449532.7850220142</v>
       </c>
-      <c r="C10" t="n">
-        <v>449532.7850220142</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -677,18 +677,18 @@
       <c r="B11" t="n">
         <v>233358.9495477115</v>
       </c>
-      <c r="C11" t="n">
-        <v>233358.9495477115</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -700,18 +700,18 @@
       <c r="B12" t="n">
         <v>486317.50703134</v>
       </c>
-      <c r="C12" t="n">
-        <v>486317.50703134</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -723,18 +723,18 @@
       <c r="B13" t="n">
         <v>470144.111170423</v>
       </c>
-      <c r="C13" t="n">
-        <v>470144.111170423</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -746,18 +746,18 @@
       <c r="B14" t="n">
         <v>274232.5633898141</v>
       </c>
-      <c r="C14" t="n">
-        <v>274232.5633898141</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -769,18 +769,18 @@
       <c r="B15" t="n">
         <v>445692.3661544998</v>
       </c>
-      <c r="C15" t="n">
-        <v>445692.3661544998</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -792,18 +792,18 @@
       <c r="B16" t="n">
         <v>988421.7469011075</v>
       </c>
-      <c r="C16" t="n">
-        <v>988421.7469011075</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -815,18 +815,18 @@
       <c r="B17" t="n">
         <v>500136.4998254037</v>
       </c>
-      <c r="C17" t="n">
-        <v>500136.4998254037</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -838,18 +838,18 @@
       <c r="B18" t="n">
         <v>582115.619538168</v>
       </c>
-      <c r="C18" t="n">
-        <v>582115.619538168</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -861,18 +861,18 @@
       <c r="B19" t="n">
         <v>479569.4234327275</v>
       </c>
-      <c r="C19" t="n">
-        <v>479569.4234327275</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -884,18 +884,18 @@
       <c r="B20" t="n">
         <v>504322.542766461</v>
       </c>
-      <c r="C20" t="n">
-        <v>504322.542766461</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -907,18 +907,18 @@
       <c r="B21" t="n">
         <v>518144.2692438074</v>
       </c>
-      <c r="C21" t="n">
-        <v>518144.2692438074</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -930,18 +930,18 @@
       <c r="B22" t="n">
         <v>458163.8559592009</v>
       </c>
-      <c r="C22" t="n">
-        <v>458163.8559592009</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -953,18 +953,18 @@
       <c r="B23" t="n">
         <v>533930.558112046</v>
       </c>
-      <c r="C23" t="n">
-        <v>533930.558112046</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -976,18 +976,18 @@
       <c r="B24" t="n">
         <v>1155691.415264088</v>
       </c>
-      <c r="C24" t="n">
-        <v>1155691.415264088</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -999,18 +999,18 @@
       <c r="B25" t="n">
         <v>936598.9411748385</v>
       </c>
-      <c r="C25" t="n">
-        <v>936598.9411748385</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1022,18 +1022,18 @@
       <c r="B26" t="n">
         <v>610769.9303386656</v>
       </c>
-      <c r="C26" t="n">
-        <v>610769.9303386656</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1045,18 +1045,18 @@
       <c r="B27" t="n">
         <v>620572.4173391545</v>
       </c>
-      <c r="C27" t="n">
-        <v>620572.4173391545</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1068,18 +1068,18 @@
       <c r="B28" t="n">
         <v>455669.6536946911</v>
       </c>
-      <c r="C28" t="n">
-        <v>455669.6536946911</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1091,18 +1091,18 @@
       <c r="B29" t="n">
         <v>1083317.855199024</v>
       </c>
-      <c r="C29" t="n">
-        <v>1083317.855199024</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1114,18 +1114,18 @@
       <c r="B30" t="n">
         <v>604358.2305868068</v>
       </c>
-      <c r="C30" t="n">
-        <v>604358.2305868068</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1137,18 +1137,18 @@
       <c r="B31" t="n">
         <v>468462.7111111821</v>
       </c>
-      <c r="C31" t="n">
-        <v>468462.7111111821</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1160,18 +1160,18 @@
       <c r="B32" t="n">
         <v>602756.6758490389</v>
       </c>
-      <c r="C32" t="n">
-        <v>602756.6758490389</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1183,18 +1183,18 @@
       <c r="B33" t="n">
         <v>604467.3279386077</v>
       </c>
-      <c r="C33" t="n">
-        <v>604467.3279386077</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1206,18 +1206,18 @@
       <c r="B34" t="n">
         <v>595486.1331403166</v>
       </c>
-      <c r="C34" t="n">
-        <v>595486.1331403166</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1229,18 +1229,18 @@
       <c r="B35" t="n">
         <v>594688.4032951093</v>
       </c>
-      <c r="C35" t="n">
-        <v>594688.4032951093</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1252,18 +1252,18 @@
       <c r="B36" t="n">
         <v>584032.4365272174</v>
       </c>
-      <c r="C36" t="n">
-        <v>584032.4365272174</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1275,18 +1275,18 @@
       <c r="B37" t="n">
         <v>523169.8305207663</v>
       </c>
-      <c r="C37" t="n">
-        <v>523169.8305207663</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1298,18 +1298,18 @@
       <c r="B38" t="n">
         <v>628036.8764390645</v>
       </c>
-      <c r="C38" t="n">
-        <v>628036.8764390645</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1321,18 +1321,18 @@
       <c r="B39" t="n">
         <v>646045.8334206871</v>
       </c>
-      <c r="C39" t="n">
-        <v>646045.8334206871</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1344,18 +1344,18 @@
       <c r="B40" t="n">
         <v>633190.5812892496</v>
       </c>
-      <c r="C40" t="n">
-        <v>633190.5812892496</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1367,18 +1367,18 @@
       <c r="B41" t="n">
         <v>755335.6657289898</v>
       </c>
-      <c r="C41" t="n">
-        <v>755335.6657289898</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1390,18 +1390,18 @@
       <c r="B42" t="n">
         <v>614672.5346446609</v>
       </c>
-      <c r="C42" t="n">
-        <v>614672.5346446609</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1413,18 +1413,18 @@
       <c r="B43" t="n">
         <v>594742.3045345413</v>
       </c>
-      <c r="C43" t="n">
-        <v>594742.3045345413</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1436,18 +1436,18 @@
       <c r="B44" t="n">
         <v>587004.3549129588</v>
       </c>
-      <c r="C44" t="n">
-        <v>587004.3549129588</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1459,18 +1459,18 @@
       <c r="B45" t="n">
         <v>550373.7550833885</v>
       </c>
-      <c r="C45" t="n">
-        <v>550373.7550833885</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1482,18 +1482,18 @@
       <c r="B46" t="n">
         <v>1016532.395685482</v>
       </c>
-      <c r="C46" t="n">
-        <v>1016532.395685482</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1505,18 +1505,18 @@
       <c r="B47" t="n">
         <v>602466.8082471207</v>
       </c>
-      <c r="C47" t="n">
-        <v>602466.8082471207</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1528,18 +1528,18 @@
       <c r="B48" t="n">
         <v>592799.3415896411</v>
       </c>
-      <c r="C48" t="n">
-        <v>592799.3415896411</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1551,18 +1551,18 @@
       <c r="B49" t="n">
         <v>1110112.946424983</v>
       </c>
-      <c r="C49" t="n">
-        <v>1110112.946424983</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1574,18 +1574,18 @@
       <c r="B50" t="n">
         <v>1162883.111458441</v>
       </c>
-      <c r="C50" t="n">
-        <v>1162883.111458441</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1597,18 +1597,18 @@
       <c r="B51" t="n">
         <v>1098243.647822462</v>
       </c>
-      <c r="C51" t="n">
-        <v>1098243.647822462</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1620,18 +1620,18 @@
       <c r="B52" t="n">
         <v>814958.4976889971</v>
       </c>
-      <c r="C52" t="n">
-        <v>814958.4976889971</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1643,18 +1643,18 @@
       <c r="B53" t="n">
         <v>756515.7272158728</v>
       </c>
-      <c r="C53" t="n">
-        <v>756515.7272158728</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1666,18 +1666,18 @@
       <c r="B54" t="n">
         <v>614710.3886838726</v>
       </c>
-      <c r="C54" t="n">
-        <v>614710.3886838726</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1689,18 +1689,18 @@
       <c r="B55" t="n">
         <v>610305.4020755871</v>
       </c>
-      <c r="C55" t="n">
-        <v>610305.4020755871</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1712,18 +1712,18 @@
       <c r="B56" t="n">
         <v>447583.0498182846</v>
       </c>
-      <c r="C56" t="n">
-        <v>447583.0498182846</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1735,18 +1735,18 @@
       <c r="B57" t="n">
         <v>600867.5928503558</v>
       </c>
-      <c r="C57" t="n">
-        <v>600867.5928503558</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1758,18 +1758,18 @@
       <c r="B58" t="n">
         <v>607680.0821993167</v>
       </c>
-      <c r="C58" t="n">
-        <v>607680.0821993167</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1781,18 +1781,18 @@
       <c r="B59" t="n">
         <v>400573.2562848176</v>
       </c>
-      <c r="C59" t="n">
-        <v>400573.2562848176</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1804,18 +1804,18 @@
       <c r="B60" t="n">
         <v>492354.9096303354</v>
       </c>
-      <c r="C60" t="n">
-        <v>492354.9096303354</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1827,18 +1827,18 @@
       <c r="B61" t="n">
         <v>589997.7370163585</v>
       </c>
-      <c r="C61" t="n">
-        <v>589997.7370163585</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1850,18 +1850,18 @@
       <c r="B62" t="n">
         <v>974538.4604628349</v>
       </c>
-      <c r="C62" t="n">
-        <v>974538.4604628349</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1873,18 +1873,18 @@
       <c r="B63" t="n">
         <v>605163.1569418604</v>
       </c>
-      <c r="C63" t="n">
-        <v>605163.1569418604</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1896,18 +1896,18 @@
       <c r="B64" t="n">
         <v>641853.0643734913</v>
       </c>
-      <c r="C64" t="n">
-        <v>641853.0643734913</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1919,18 +1919,18 @@
       <c r="B65" t="n">
         <v>152791.3211423807</v>
       </c>
-      <c r="C65" t="n">
-        <v>152791.3211423807</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1942,18 +1942,18 @@
       <c r="B66" t="n">
         <v>414741.1915629897</v>
       </c>
-      <c r="C66" t="n">
-        <v>414741.1915629897</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1965,18 +1965,18 @@
       <c r="B67" t="n">
         <v>989471.2435112</v>
       </c>
-      <c r="C67" t="n">
-        <v>989471.2435112</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1988,18 +1988,18 @@
       <c r="B68" t="n">
         <v>974896.9109817223</v>
       </c>
-      <c r="C68" t="n">
-        <v>974896.9109817223</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2011,18 +2011,18 @@
       <c r="B69" t="n">
         <v>616531.2543755191</v>
       </c>
-      <c r="C69" t="n">
-        <v>616531.2543755191</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2034,18 +2034,18 @@
       <c r="B70" t="n">
         <v>592206.7434104448</v>
       </c>
-      <c r="C70" t="n">
-        <v>592206.7434104448</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2057,18 +2057,18 @@
       <c r="B71" t="n">
         <v>379731.0249101603</v>
       </c>
-      <c r="C71" t="n">
-        <v>379731.0249101603</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2080,18 +2080,18 @@
       <c r="B72" t="n">
         <v>599931.6087351369</v>
       </c>
-      <c r="C72" t="n">
-        <v>599931.6087351369</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2103,18 +2103,18 @@
       <c r="B73" t="n">
         <v>604328.0882740417</v>
       </c>
-      <c r="C73" t="n">
-        <v>604328.0882740417</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2126,18 +2126,18 @@
       <c r="B74" t="n">
         <v>396958.8742203485</v>
       </c>
-      <c r="C74" t="n">
-        <v>396958.8742203485</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2149,18 +2149,18 @@
       <c r="B75" t="n">
         <v>610960.8827223488</v>
       </c>
-      <c r="C75" t="n">
-        <v>610960.8827223488</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2172,18 +2172,18 @@
       <c r="B76" t="n">
         <v>597288.2931566165</v>
       </c>
-      <c r="C76" t="n">
-        <v>597288.2931566165</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2195,18 +2195,18 @@
       <c r="B77" t="n">
         <v>584722.9803257991</v>
       </c>
-      <c r="C77" t="n">
-        <v>584722.9803257991</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2218,18 +2218,18 @@
       <c r="B78" t="n">
         <v>738030.6002959399</v>
       </c>
-      <c r="C78" t="n">
-        <v>738030.6002959399</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2241,18 +2241,18 @@
       <c r="B79" t="n">
         <v>504548.8857460856</v>
       </c>
-      <c r="C79" t="n">
-        <v>504548.8857460856</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2264,18 +2264,18 @@
       <c r="B80" t="n">
         <v>612003.1928189463</v>
       </c>
-      <c r="C80" t="n">
-        <v>612003.1928189463</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2287,18 +2287,18 @@
       <c r="B81" t="n">
         <v>515629.4840381573</v>
       </c>
-      <c r="C81" t="n">
-        <v>515629.4840381573</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2310,18 +2310,18 @@
       <c r="B82" t="n">
         <v>230352.4333409129</v>
       </c>
-      <c r="C82" t="n">
-        <v>230352.4333409129</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2333,18 +2333,18 @@
       <c r="B83" t="n">
         <v>574985.024084218</v>
       </c>
-      <c r="C83" t="n">
-        <v>574985.024084218</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2356,18 +2356,18 @@
       <c r="B84" t="n">
         <v>597085.6401293336</v>
       </c>
-      <c r="C84" t="n">
-        <v>597085.6401293336</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2379,18 +2379,18 @@
       <c r="B85" t="n">
         <v>1042724.677344811</v>
       </c>
-      <c r="C85" t="n">
-        <v>1042724.677344811</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2402,18 +2402,18 @@
       <c r="B86" t="n">
         <v>611159.0984595368</v>
       </c>
-      <c r="C86" t="n">
-        <v>611159.0984595368</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2425,18 +2425,18 @@
       <c r="B87" t="n">
         <v>598557.7805690781</v>
       </c>
-      <c r="C87" t="n">
-        <v>598557.7805690781</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2448,18 +2448,18 @@
       <c r="B88" t="n">
         <v>597919.5079972218</v>
       </c>
-      <c r="C88" t="n">
-        <v>597919.5079972218</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2471,18 +2471,18 @@
       <c r="B89" t="n">
         <v>935719.0702504615</v>
       </c>
-      <c r="C89" t="n">
-        <v>935719.0702504615</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2494,18 +2494,18 @@
       <c r="B90" t="n">
         <v>1193215.54239295</v>
       </c>
-      <c r="C90" t="n">
-        <v>1193215.54239295</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2517,18 +2517,18 @@
       <c r="B91" t="n">
         <v>594327.3112618455</v>
       </c>
-      <c r="C91" t="n">
-        <v>594327.3112618455</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2540,18 +2540,18 @@
       <c r="B92" t="n">
         <v>603458.2913630004</v>
       </c>
-      <c r="C92" t="n">
-        <v>603458.2913630004</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2563,18 +2563,18 @@
       <c r="B93" t="n">
         <v>956968.3512208365</v>
       </c>
-      <c r="C93" t="n">
-        <v>956968.3512208365</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2586,18 +2586,18 @@
       <c r="B94" t="n">
         <v>1219983.031230573</v>
       </c>
-      <c r="C94" t="n">
-        <v>1219983.031230573</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2609,18 +2609,18 @@
       <c r="B95" t="n">
         <v>616313.6649003953</v>
       </c>
-      <c r="C95" t="n">
-        <v>616313.6649003953</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2632,18 +2632,18 @@
       <c r="B96" t="n">
         <v>603841.1051868135</v>
       </c>
-      <c r="C96" t="n">
-        <v>603841.1051868135</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2655,18 +2655,18 @@
       <c r="B97" t="n">
         <v>1078804.379540518</v>
       </c>
-      <c r="C97" t="n">
-        <v>1078804.379540518</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2678,18 +2678,18 @@
       <c r="B98" t="n">
         <v>1010118.577782201</v>
       </c>
-      <c r="C98" t="n">
-        <v>1010118.577782201</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2701,18 +2701,18 @@
       <c r="B99" t="n">
         <v>615417.2307190623</v>
       </c>
-      <c r="C99" t="n">
-        <v>615417.2307190623</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2724,18 +2724,18 @@
       <c r="B100" t="n">
         <v>604795.2223342678</v>
       </c>
-      <c r="C100" t="n">
-        <v>604795.2223342678</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2747,18 +2747,18 @@
       <c r="B101" t="n">
         <v>621951.1297037605</v>
       </c>
-      <c r="C101" t="n">
-        <v>621951.1297037605</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2770,18 +2770,18 @@
       <c r="B102" t="n">
         <v>600838.5007222934</v>
       </c>
-      <c r="C102" t="n">
-        <v>600838.5007222934</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2793,18 +2793,18 @@
       <c r="B103" t="n">
         <v>601639.7981686883</v>
       </c>
-      <c r="C103" t="n">
-        <v>601639.7981686883</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2816,18 +2816,18 @@
       <c r="B104" t="n">
         <v>592021.4799574993</v>
       </c>
-      <c r="C104" t="n">
-        <v>592021.4799574993</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2839,18 +2839,18 @@
       <c r="B105" t="n">
         <v>579194.0247956001</v>
       </c>
-      <c r="C105" t="n">
-        <v>579194.0247956001</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2862,18 +2862,18 @@
       <c r="B106" t="n">
         <v>584334.0928721953</v>
       </c>
-      <c r="C106" t="n">
-        <v>584334.0928721953</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2885,18 +2885,18 @@
       <c r="B107" t="n">
         <v>828914.9419136329</v>
       </c>
-      <c r="C107" t="n">
-        <v>828914.9419136329</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2908,18 +2908,18 @@
       <c r="B108" t="n">
         <v>594718.3832519844</v>
       </c>
-      <c r="C108" t="n">
-        <v>594718.3832519844</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2931,18 +2931,18 @@
       <c r="B109" t="n">
         <v>821994.9809783018</v>
       </c>
-      <c r="C109" t="n">
-        <v>821994.9809783018</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2954,18 +2954,18 @@
       <c r="B110" t="n">
         <v>987808.2981055928</v>
       </c>
-      <c r="C110" t="n">
-        <v>987808.2981055928</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2977,18 +2977,18 @@
       <c r="B111" t="n">
         <v>613099.830424974</v>
       </c>
-      <c r="C111" t="n">
-        <v>613099.830424974</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3000,18 +3000,18 @@
       <c r="B112" t="n">
         <v>941099.8434962181</v>
       </c>
-      <c r="C112" t="n">
-        <v>941099.8434962181</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3023,18 +3023,18 @@
       <c r="B113" t="n">
         <v>597730.4060378105</v>
       </c>
-      <c r="C113" t="n">
-        <v>597730.4060378105</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3046,18 +3046,18 @@
       <c r="B114" t="n">
         <v>930255.3438286602</v>
       </c>
-      <c r="C114" t="n">
-        <v>930255.3438286602</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3069,18 +3069,18 @@
       <c r="B115" t="n">
         <v>616052.0866365803</v>
       </c>
-      <c r="C115" t="n">
-        <v>616052.0866365803</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3092,18 +3092,18 @@
       <c r="B116" t="n">
         <v>615617.4570225256</v>
       </c>
-      <c r="C116" t="n">
-        <v>615617.4570225256</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3115,18 +3115,18 @@
       <c r="B117" t="n">
         <v>637197.1953411234</v>
       </c>
-      <c r="C117" t="n">
-        <v>637197.1953411234</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3138,18 +3138,18 @@
       <c r="B118" t="n">
         <v>614500.9659391895</v>
       </c>
-      <c r="C118" t="n">
-        <v>614500.9659391895</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3161,18 +3161,18 @@
       <c r="B119" t="n">
         <v>598674.4892126257</v>
       </c>
-      <c r="C119" t="n">
-        <v>598674.4892126257</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3184,18 +3184,18 @@
       <c r="B120" t="n">
         <v>409426.8592243067</v>
       </c>
-      <c r="C120" t="n">
-        <v>409426.8592243067</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3207,18 +3207,18 @@
       <c r="B121" t="n">
         <v>868051.6988027941</v>
       </c>
-      <c r="C121" t="n">
-        <v>868051.6988027941</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3230,18 +3230,18 @@
       <c r="B122" t="n">
         <v>990412.6529535537</v>
       </c>
-      <c r="C122" t="n">
-        <v>990412.6529535537</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3253,18 +3253,18 @@
       <c r="B123" t="n">
         <v>854481.2599572281</v>
       </c>
-      <c r="C123" t="n">
-        <v>854481.2599572281</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3276,18 +3276,18 @@
       <c r="B124" t="n">
         <v>731234.7897897145</v>
       </c>
-      <c r="C124" t="n">
-        <v>731234.7897897145</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3299,18 +3299,18 @@
       <c r="B125" t="n">
         <v>744869.5654980374</v>
       </c>
-      <c r="C125" t="n">
-        <v>744869.5654980374</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3322,18 +3322,18 @@
       <c r="B126" t="n">
         <v>760151.3638366143</v>
       </c>
-      <c r="C126" t="n">
-        <v>760151.3638366143</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3345,18 +3345,18 @@
       <c r="B127" t="n">
         <v>792069.4021877868</v>
       </c>
-      <c r="C127" t="n">
-        <v>792069.4021877868</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3368,18 +3368,18 @@
       <c r="B128" t="n">
         <v>1092849.797296413</v>
       </c>
-      <c r="C128" t="n">
-        <v>1092849.797296413</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3391,18 +3391,18 @@
       <c r="B129" t="n">
         <v>858363.6207385566</v>
       </c>
-      <c r="C129" t="n">
-        <v>858363.6207385566</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3414,18 +3414,18 @@
       <c r="B130" t="n">
         <v>688951.8698053007</v>
       </c>
-      <c r="C130" t="n">
-        <v>688951.8698053007</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3437,18 +3437,18 @@
       <c r="B131" t="n">
         <v>481845.128212545</v>
       </c>
-      <c r="C131" t="n">
-        <v>481845.128212545</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3460,18 +3460,18 @@
       <c r="B132" t="n">
         <v>943041.7901960739</v>
       </c>
-      <c r="C132" t="n">
-        <v>943041.7901960739</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3483,18 +3483,18 @@
       <c r="B133" t="n">
         <v>999572.3449409876</v>
       </c>
-      <c r="C133" t="n">
-        <v>999572.3449409876</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3506,18 +3506,18 @@
       <c r="B134" t="n">
         <v>527905.4502517304</v>
       </c>
-      <c r="C134" t="n">
-        <v>527905.4502517304</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3529,18 +3529,18 @@
       <c r="B135" t="n">
         <v>621586.2990845195</v>
       </c>
-      <c r="C135" t="n">
-        <v>621586.2990845195</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3552,18 +3552,18 @@
       <c r="B136" t="n">
         <v>601889.8238644499</v>
       </c>
-      <c r="C136" t="n">
-        <v>601889.8238644499</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3575,18 +3575,18 @@
       <c r="B137" t="n">
         <v>1088384.002075061</v>
       </c>
-      <c r="C137" t="n">
-        <v>1088384.002075061</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3598,18 +3598,18 @@
       <c r="B138" t="n">
         <v>701900.081240588</v>
       </c>
-      <c r="C138" t="n">
-        <v>701900.081240588</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3621,18 +3621,18 @@
       <c r="B139" t="n">
         <v>595531.1176740803</v>
       </c>
-      <c r="C139" t="n">
-        <v>595531.1176740803</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3644,18 +3644,18 @@
       <c r="B140" t="n">
         <v>1084735.43725928</v>
       </c>
-      <c r="C140" t="n">
-        <v>1084735.43725928</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3667,18 +3667,18 @@
       <c r="B141" t="n">
         <v>621921.7019829488</v>
       </c>
-      <c r="C141" t="n">
-        <v>621921.7019829488</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3690,18 +3690,18 @@
       <c r="B142" t="n">
         <v>590889.1145694907</v>
       </c>
-      <c r="C142" t="n">
-        <v>590889.1145694907</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3713,18 +3713,18 @@
       <c r="B143" t="n">
         <v>624706.5470014876</v>
       </c>
-      <c r="C143" t="n">
-        <v>624706.5470014876</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3736,18 +3736,18 @@
       <c r="B144" t="n">
         <v>614407.6315480751</v>
       </c>
-      <c r="C144" t="n">
-        <v>614407.6315480751</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3759,18 +3759,18 @@
       <c r="B145" t="n">
         <v>712300.5151852082</v>
       </c>
-      <c r="C145" t="n">
-        <v>712300.5151852082</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -3782,18 +3782,18 @@
       <c r="B146" t="n">
         <v>303266.3439842783</v>
       </c>
-      <c r="C146" t="n">
-        <v>303266.3439842783</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3805,18 +3805,18 @@
       <c r="B147" t="n">
         <v>306609.8066876925</v>
       </c>
-      <c r="C147" t="n">
-        <v>306609.8066876925</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3828,18 +3828,18 @@
       <c r="B148" t="n">
         <v>296930.586525974</v>
       </c>
-      <c r="C148" t="n">
-        <v>296930.586525974</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3851,18 +3851,18 @@
       <c r="B149" t="n">
         <v>305238.8924069409</v>
       </c>
-      <c r="C149" t="n">
-        <v>305238.8924069409</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -3874,18 +3874,18 @@
       <c r="B150" t="n">
         <v>298619.3937112942</v>
       </c>
-      <c r="C150" t="n">
-        <v>298619.3937112942</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3897,18 +3897,18 @@
       <c r="B151" t="n">
         <v>298367.5184822121</v>
       </c>
-      <c r="C151" t="n">
-        <v>298367.5184822121</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -3920,18 +3920,18 @@
       <c r="B152" t="n">
         <v>295310.352796126</v>
       </c>
-      <c r="C152" t="n">
-        <v>295310.352796126</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3943,18 +3943,18 @@
       <c r="B153" t="n">
         <v>301020.6938158838</v>
       </c>
-      <c r="C153" t="n">
-        <v>301020.6938158838</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3966,18 +3966,18 @@
       <c r="B154" t="n">
         <v>666534.5041377699</v>
       </c>
-      <c r="C154" t="n">
-        <v>666534.5041377699</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3989,18 +3989,18 @@
       <c r="B155" t="n">
         <v>677141.1194820841</v>
       </c>
-      <c r="C155" t="n">
-        <v>677141.1194820841</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4012,18 +4012,18 @@
       <c r="B156" t="n">
         <v>678256.4305067346</v>
       </c>
-      <c r="C156" t="n">
-        <v>678256.4305067346</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4035,18 +4035,18 @@
       <c r="B157" t="n">
         <v>597919.5079972218</v>
       </c>
-      <c r="C157" t="n">
-        <v>597919.5079972218</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4058,18 +4058,18 @@
       <c r="B158" t="n">
         <v>949214.3166324227</v>
       </c>
-      <c r="C158" t="n">
-        <v>949214.3166324227</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4081,18 +4081,18 @@
       <c r="B159" t="n">
         <v>591384.4721542114</v>
       </c>
-      <c r="C159" t="n">
-        <v>591384.4721542114</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4104,18 +4104,18 @@
       <c r="B160" t="n">
         <v>1083495.776896731</v>
       </c>
-      <c r="C160" t="n">
-        <v>1083495.776896731</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4127,18 +4127,18 @@
       <c r="B161" t="n">
         <v>623425.5414538771</v>
       </c>
-      <c r="C161" t="n">
-        <v>623425.5414538771</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4150,18 +4150,18 @@
       <c r="B162" t="n">
         <v>610113.5905982024</v>
       </c>
-      <c r="C162" t="n">
-        <v>610113.5905982024</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4173,18 +4173,18 @@
       <c r="B163" t="n">
         <v>1207829.647067947</v>
       </c>
-      <c r="C163" t="n">
-        <v>1207829.647067947</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4196,18 +4196,18 @@
       <c r="B164" t="n">
         <v>535254.8196475416</v>
       </c>
-      <c r="C164" t="n">
-        <v>535254.8196475416</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4219,18 +4219,18 @@
       <c r="B165" t="n">
         <v>511435.0639916838</v>
       </c>
-      <c r="C165" t="n">
-        <v>511435.0639916838</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4242,18 +4242,18 @@
       <c r="B166" t="n">
         <v>608719.6621155832</v>
       </c>
-      <c r="C166" t="n">
-        <v>608719.6621155832</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4265,18 +4265,18 @@
       <c r="B167" t="n">
         <v>959557.8264401293</v>
       </c>
-      <c r="C167" t="n">
-        <v>959557.8264401293</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4288,18 +4288,18 @@
       <c r="B168" t="n">
         <v>603306.6776153666</v>
       </c>
-      <c r="C168" t="n">
-        <v>603306.6776153666</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4311,18 +4311,18 @@
       <c r="B169" t="n">
         <v>576433.9121741992</v>
       </c>
-      <c r="C169" t="n">
-        <v>576433.9121741992</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4334,18 +4334,18 @@
       <c r="B170" t="n">
         <v>612825.5336310667</v>
       </c>
-      <c r="C170" t="n">
-        <v>612825.5336310667</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4357,18 +4357,18 @@
       <c r="B171" t="n">
         <v>635062.1314260033</v>
       </c>
-      <c r="C171" t="n">
-        <v>635062.1314260033</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4380,18 +4380,18 @@
       <c r="B172" t="n">
         <v>596734.0174128001</v>
       </c>
-      <c r="C172" t="n">
-        <v>596734.0174128001</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4403,18 +4403,18 @@
       <c r="B173" t="n">
         <v>573114.1472307022</v>
       </c>
-      <c r="C173" t="n">
-        <v>573114.1472307022</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4426,18 +4426,18 @@
       <c r="B174" t="n">
         <v>1156742.831992817</v>
       </c>
-      <c r="C174" t="n">
-        <v>1156742.831992817</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4449,18 +4449,18 @@
       <c r="B175" t="n">
         <v>834297.3162010242</v>
       </c>
-      <c r="C175" t="n">
-        <v>834297.3162010242</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4472,18 +4472,18 @@
       <c r="B176" t="n">
         <v>631865.0563380548</v>
       </c>
-      <c r="C176" t="n">
-        <v>631865.0563380548</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4495,18 +4495,18 @@
       <c r="B177" t="n">
         <v>527365.1249446629</v>
       </c>
-      <c r="C177" t="n">
-        <v>527365.1249446629</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4518,18 +4518,18 @@
       <c r="B178" t="n">
         <v>542958.4583674883</v>
       </c>
-      <c r="C178" t="n">
-        <v>542958.4583674883</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -4541,18 +4541,18 @@
       <c r="B179" t="n">
         <v>553732.0748766415</v>
       </c>
-      <c r="C179" t="n">
-        <v>553732.0748766415</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -4564,18 +4564,18 @@
       <c r="B180" t="n">
         <v>533591.2997775598</v>
       </c>
-      <c r="C180" t="n">
-        <v>533591.2997775598</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4587,18 +4587,18 @@
       <c r="B181" t="n">
         <v>758822.1132556178</v>
       </c>
-      <c r="C181" t="n">
-        <v>758822.1132556178</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4610,18 +4610,18 @@
       <c r="B182" t="n">
         <v>596832.5366649776</v>
       </c>
-      <c r="C182" t="n">
-        <v>596832.5366649776</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4633,18 +4633,18 @@
       <c r="B183" t="n">
         <v>606792.6580080685</v>
       </c>
-      <c r="C183" t="n">
-        <v>606792.6580080685</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -4656,18 +4656,18 @@
       <c r="B184" t="n">
         <v>607428.7494762678</v>
       </c>
-      <c r="C184" t="n">
-        <v>607428.7494762678</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4679,18 +4679,18 @@
       <c r="B185" t="n">
         <v>626990.1995568568</v>
       </c>
-      <c r="C185" t="n">
-        <v>626990.1995568568</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4702,18 +4702,18 @@
       <c r="B186" t="n">
         <v>662691.3048989768</v>
       </c>
-      <c r="C186" t="n">
-        <v>662691.3048989768</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4725,18 +4725,18 @@
       <c r="B187" t="n">
         <v>597199.0059300744</v>
       </c>
-      <c r="C187" t="n">
-        <v>597199.0059300744</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4748,18 +4748,18 @@
       <c r="B188" t="n">
         <v>624308.2835577248</v>
       </c>
-      <c r="C188" t="n">
-        <v>624308.2835577248</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4771,18 +4771,18 @@
       <c r="B189" t="n">
         <v>615932.8296655524</v>
       </c>
-      <c r="C189" t="n">
-        <v>615932.8296655524</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4794,18 +4794,18 @@
       <c r="B190" t="n">
         <v>589186.2247756358</v>
       </c>
-      <c r="C190" t="n">
-        <v>589186.2247756358</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4817,18 +4817,18 @@
       <c r="B191" t="n">
         <v>588085.5269438503</v>
       </c>
-      <c r="C191" t="n">
-        <v>588085.5269438503</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -4840,18 +4840,18 @@
       <c r="B192" t="n">
         <v>589727.0894659751</v>
       </c>
-      <c r="C192" t="n">
-        <v>589727.0894659751</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4863,18 +4863,18 @@
       <c r="B193" t="n">
         <v>658485.5784701026</v>
       </c>
-      <c r="C193" t="n">
-        <v>658485.5784701026</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4886,18 +4886,18 @@
       <c r="B194" t="n">
         <v>648833.4186407407</v>
       </c>
-      <c r="C194" t="n">
-        <v>648833.4186407407</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4909,18 +4909,18 @@
       <c r="B195" t="n">
         <v>308118.8450425059</v>
       </c>
-      <c r="C195" t="n">
-        <v>308118.8450425059</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4932,18 +4932,18 @@
       <c r="B196" t="n">
         <v>615140.3794084099</v>
       </c>
-      <c r="C196" t="n">
-        <v>615140.3794084099</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -4955,18 +4955,18 @@
       <c r="B197" t="n">
         <v>629718.882772946</v>
       </c>
-      <c r="C197" t="n">
-        <v>629718.882772946</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -4978,18 +4978,18 @@
       <c r="B198" t="n">
         <v>617998.1699014776</v>
       </c>
-      <c r="C198" t="n">
-        <v>617998.1699014776</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5001,18 +5001,18 @@
       <c r="B199" t="n">
         <v>561575.9708660898</v>
       </c>
-      <c r="C199" t="n">
-        <v>561575.9708660898</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -5024,18 +5024,18 @@
       <c r="B200" t="n">
         <v>615554.824442787</v>
       </c>
-      <c r="C200" t="n">
-        <v>615554.824442787</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5047,18 +5047,18 @@
       <c r="B201" t="n">
         <v>1169773.987147082</v>
       </c>
-      <c r="C201" t="n">
-        <v>1169773.987147082</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="E201" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
